--- a/excel/1995/Report-1995-04-19.xlsx
+++ b/excel/1995/Report-1995-04-19.xlsx
@@ -11,39 +11,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="129">
-  <si>
-    <t>recall_classification_date</t>
-  </si>
-  <si>
-    <t>product_type</t>
-  </si>
-  <si>
-    <t>classification</t>
-  </si>
-  <si>
-    <t>recall_number</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>recalling_firm</t>
-  </si>
-  <si>
-    <t>manufacturer</t>
-  </si>
-  <si>
-    <t>recall_initiation_date</t>
-  </si>
-  <si>
-    <t>reason</t>
-  </si>
-  <si>
-    <t>volume</t>
-  </si>
-  <si>
-    <t>distribution</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="215">
+  <si>
+    <t>RECALL_CLASSIFICATION_DATE</t>
+  </si>
+  <si>
+    <t>PRODUCT_TYPE</t>
+  </si>
+  <si>
+    <t>CLASSIFICATION</t>
+  </si>
+  <si>
+    <t>RECALL_NUMBER</t>
+  </si>
+  <si>
+    <t>PRODUCT</t>
+  </si>
+  <si>
+    <t>RECALLING_FIRM</t>
+  </si>
+  <si>
+    <t>MANUFACTURER</t>
+  </si>
+  <si>
+    <t>RECALL_INITIALIZATION_DATE</t>
+  </si>
+  <si>
+    <t>REASON</t>
+  </si>
+  <si>
+    <t>VOLUME</t>
+  </si>
+  <si>
+    <t>DISTRIBUTION</t>
   </si>
   <si>
     <t>1995-04-19</t>
@@ -52,117 +52,115 @@
     <t>Drugs</t>
   </si>
   <si>
-    <t xml:space="preserve"> II
-</t>
+    <t>II</t>
   </si>
   <si>
     <t>d-112-5</t>
   </si>
   <si>
-    <t>Dilantin (extended Phenytoin Sodium Capsules, Usp),  Kapseals, 100 Mg, In Bottles Of 100, Used In The Treatment  Of Seizures</t>
+    <t>Dilantin Extended Phenytoin Sodium Capsules Usp Kapseals 100 Mg In Bottles Of 100 Used In The Treatment Of Seizures</t>
   </si>
   <si>
     <t>Parke Davis</t>
   </si>
   <si>
-    <t>Warner Lambert Company, Fajardo, Puerto Rico</t>
-  </si>
-  <si>
-    <t>January 26, 1995</t>
-  </si>
-  <si>
-    <t>Product Does Not Meet Dissolution Specifications Through  Expiration Date.</t>
-  </si>
-  <si>
-    <t>40,242 bottles were distributed</t>
+    <t>Warner Lambert Company Fajardo Puerto Rico</t>
+  </si>
+  <si>
+    <t>January 26 1995</t>
+  </si>
+  <si>
+    <t>Product Does Not Meet Dissolution Specifications Through Expiration Date</t>
+  </si>
+  <si>
+    <t>40 242 Bottles Were Distributed</t>
   </si>
   <si>
     <t>Nationwide</t>
   </si>
   <si>
-    <t xml:space="preserve"> III</t>
+    <t>III</t>
   </si>
   <si>
     <t>d-113-5</t>
   </si>
   <si>
-    <t>Robichem Ac Formulated Products Containing 100 Mg  Guaifenesin And 10 Mg Codeine Phosphate And 3</t>
+    <t>Robichem Ac Formulated Products Containing 100 Mg Guaifenesin And 10 Mg Codeine Phosphate And 3</t>
   </si>
   <si>
     <t>Manufacturer</t>
   </si>
   <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>March 1, 1995</t>
-  </si>
-  <si>
-    <t>Product Does Not Meet Specifications Through Expiration  Date</t>
-  </si>
-  <si>
-    <t>202,403 4-ounce bottles; 68,963 pint bottles, and 3,617
- gallon containers were distributed</t>
-  </si>
-  <si>
-    <t>Alabama, Arkansas, Arizona, California, Florida, Georgia,  Illinois, Louisiana Maryland, Michigan, Mississippi,  Oklahoma, Texas, Virginia, Washington State</t>
+    <t>H N Norton Company</t>
+  </si>
+  <si>
+    <t>March 1 1995</t>
+  </si>
+  <si>
+    <t>Product Does Not Meet Specifications Through Expiration Date</t>
+  </si>
+  <si>
+    <t>202 403 4 Ounce Bottles 68 963 Pint Bottles And 3 617 Gallon Containers Were Distributed</t>
+  </si>
+  <si>
+    <t>Alabama Arkansas Arizona California Florida Georgia Illinois Louisiana Maryland Michigan Mississippi Oklahoma Texas Virginia Washington State</t>
   </si>
   <si>
     <t>d-114-5</t>
   </si>
   <si>
-    <t>Congess Sr, Packaged In 100 Capsule Bottles, Rx  Decongestant</t>
-  </si>
-  <si>
-    <t>Fleming And Company, Fenton, Missouri</t>
-  </si>
-  <si>
-    <t>March 13, 1995</t>
+    <t>Congess Sr Packaged In 100 Capsule Bottles Rx Decongestant</t>
+  </si>
+  <si>
+    <t>Fleming And Company Fenton Missouri</t>
+  </si>
+  <si>
+    <t>March 13 1995</t>
   </si>
   <si>
     <t>Stability Data Does Not Support Expiration Date</t>
   </si>
   <si>
-    <t>705 bottles were distributed</t>
+    <t>705 Bottles Were Distributed</t>
   </si>
   <si>
     <t>d-115-5</t>
   </si>
   <si>
-    <t>Carbamide Peroxide Otic Drops 15 Ml, Packed In Glass  Bottles, Under The Clay Park Label And The Following Private  Labels: Longs Ear Drops 1/2 Fluid Ounce (15 Ml),  Distributed By Longs Drug Stores Inc</t>
-  </si>
-  <si>
-    <t>Clay Park Laboratories, Inc</t>
-  </si>
-  <si>
-    <t>April 10, 1995</t>
+    <t>Carbamide Peroxide Otic Drops 15 Ml Packed In Glass Bottles Under The Clay Park Label And The Following Private Labels Longs Ear Drops 1 2 Fluid Ounce 15 Ml Distributed By Longs Drug Stores Inc</t>
+  </si>
+  <si>
+    <t>Clay Park Laboratories Inc</t>
+  </si>
+  <si>
+    <t>April 10 1995</t>
   </si>
   <si>
     <t>Subpotenc</t>
   </si>
   <si>
-    <t>approximately 961,882 bottles were distributed</t>
-  </si>
-  <si>
-    <t>Nationwide, Guyana, Virgin Islands</t>
+    <t>Approximately 961 882 Bottles Were Distributed</t>
+  </si>
+  <si>
+    <t>Nationwide Guyana Virgin Islands</t>
   </si>
   <si>
     <t>d-116-5</t>
   </si>
   <si>
-    <t>Loxitane (loxapine Succinate) Capsules 10 Mg Base, In  Bottles Of 100, 1000 And Unit Dose 10 Strips, Rx  Tranquilizer</t>
-  </si>
-  <si>
-    <t>Lederle Laboratories, Inc</t>
-  </si>
-  <si>
-    <t>March 31, 1995</t>
+    <t>Loxitane Loxapine Succinate Capsules 10 Mg Base In Bottles Of 100 1000 And Unit Dose 10 Strips Rx Tranquilizer</t>
+  </si>
+  <si>
+    <t>Lederle Laboratories Inc</t>
+  </si>
+  <si>
+    <t>March 31 1995</t>
   </si>
   <si>
     <t>Marginally Subpotent</t>
   </si>
   <si>
-    <t>14,715 packages were distributed</t>
+    <t>14 715 Packages Were Distributed</t>
   </si>
   <si>
     <t>Biologics</t>
@@ -171,19 +169,19 @@
     <t>b-220-5</t>
   </si>
   <si>
-    <t>Platelet, Pheresis</t>
-  </si>
-  <si>
-    <t>American Red Cross, Charlotte, North Carolina</t>
-  </si>
-  <si>
-    <t>October 4, 1994</t>
-  </si>
-  <si>
-    <t>Platelets, Pheresis, Which Was Labeled With An Incorrect  Expiration Date, Was Distributed</t>
-  </si>
-  <si>
-    <t>1 unit</t>
+    <t>Platelet Pheresis</t>
+  </si>
+  <si>
+    <t>American Red Cross Charlotte North Carolina</t>
+  </si>
+  <si>
+    <t>October 4 1994</t>
+  </si>
+  <si>
+    <t>Platelets Pheresis Which Was Labeled With An Incorrect Expiration Date Was Distributed</t>
+  </si>
+  <si>
+    <t>1 Unit</t>
   </si>
   <si>
     <t>North Carolina</t>
@@ -192,22 +190,22 @@
     <t>b-223/225-5</t>
   </si>
   <si>
-    <t>(a) Red Blood Cells; (b) Platelets; (c) Recovered Plasma</t>
-  </si>
-  <si>
-    <t>American Red Cross Blood Services, Peoria, Illinois</t>
-  </si>
-  <si>
-    <t>December 14, 1994</t>
-  </si>
-  <si>
-    <t>Blood Products, Which Tested Initially Reactive For Antibody  To Human Immunodeficiency Virus Type 1 (anti-hiv-1) And Were  Not Retested In Duplicate, Were Distributed</t>
-  </si>
-  <si>
-    <t>1 unit of each component</t>
-  </si>
-  <si>
-    <t>Illinois, California</t>
+    <t>A Red Blood Cells B Platelets C Recovered Plasma</t>
+  </si>
+  <si>
+    <t>American Red Cross Blood Services Peoria Illinois</t>
+  </si>
+  <si>
+    <t>December 14 1994</t>
+  </si>
+  <si>
+    <t>Blood Products Which Tested Initially Reactive For Antibody To Human Immunodeficiency Virus Type 1 Anti Hiv 1 And Were Not Retested In Duplicate Were Distributed</t>
+  </si>
+  <si>
+    <t>1 Unit Of Each Component 4</t>
+  </si>
+  <si>
+    <t>Illinois California</t>
   </si>
   <si>
     <t>b-230-5</t>
@@ -219,13 +217,13 @@
     <t>American Red Cross Blood Services</t>
   </si>
   <si>
-    <t>American Red Cross Blood Services, Petoskey, Michigan</t>
-  </si>
-  <si>
-    <t>September 28, 1993</t>
-  </si>
-  <si>
-    <t>Blood Product, Collected From A Donor Who Had Taken  Antimalarial Prophylaxis And Traveled To An Area Designated  As Endemic For Malaria, Was Distributed</t>
+    <t>American Red Cross Blood Services Petoskey Michigan</t>
+  </si>
+  <si>
+    <t>September 28 1993</t>
+  </si>
+  <si>
+    <t>Blood Product Collected From A Donor Who Had Taken Antimalarial Prophylaxis And Traveled To An Area Designated As Endemic For Malaria Was Distributed</t>
   </si>
   <si>
     <t>Michigan</t>
@@ -234,31 +232,34 @@
     <t>b-231/233-5</t>
   </si>
   <si>
-    <t>(a) Red Blood Cells; (b) Recovered Plasma, Liquid; (c) Whole  Blood</t>
-  </si>
-  <si>
-    <t>Community Blood Center Of Greater Kansas City, Kansas City,  Missouri</t>
-  </si>
-  <si>
-    <t>May 12, 1994</t>
-  </si>
-  <si>
-    <t>Blood Products, Collected From Donors With A History Of  Hepatitis, Were Distributed For Transfusion And For Further  Manufacturing Into Injectable Or Non-injectable Products</t>
-  </si>
-  <si>
-    <t>Arizona, Missouri</t>
+    <t>A Red Blood Cells B Recovered Plasma Liquid C Whole Blood</t>
+  </si>
+  <si>
+    <t>Community Blood Center Of Greater Kansas City Kansas City Missouri</t>
+  </si>
+  <si>
+    <t>May 12 1994</t>
+  </si>
+  <si>
+    <t>Blood Products Collected From Donors With A History Of Hepatitis Were Distributed For Transfusion And For Further Manufacturing Into Injectable Or Non Injectable Products</t>
+  </si>
+  <si>
+    <t>1 Unit Of Each Component</t>
+  </si>
+  <si>
+    <t>Arizona Missouri</t>
   </si>
   <si>
     <t>b-219-5</t>
   </si>
   <si>
-    <t>Central California Blood Center, Fresno, California</t>
-  </si>
-  <si>
-    <t>July 27, 1994</t>
-  </si>
-  <si>
-    <t>Blood Product Which Was Exposed To Unacceptable Storage  Temperatures Was Distributed</t>
+    <t>Central California Blood Center Fresno California</t>
+  </si>
+  <si>
+    <t>July 27 1994</t>
+  </si>
+  <si>
+    <t>Blood Product Which Was Exposed To Unacceptable Storage Temperatures Was Distributed</t>
   </si>
   <si>
     <t>California</t>
@@ -267,16 +268,13 @@
     <t>b-221-5</t>
   </si>
   <si>
-    <t>Community Blood Center Of Greater Kansas City, Kansas City  Missouri</t>
-  </si>
-  <si>
-    <t>February 14, 1994</t>
-  </si>
-  <si>
-    <t>Blood Products, Stored Under Unmonitored Temperature  Conditions, Were Distributed</t>
-  </si>
-  <si>
-    <t>2 units</t>
+    <t>February 14 1994</t>
+  </si>
+  <si>
+    <t>Blood Products Stored Under Unmonitored Temperature Conditions Were Distributed</t>
+  </si>
+  <si>
+    <t>2 Units 5</t>
   </si>
   <si>
     <t>Missouri</t>
@@ -285,20 +283,19 @@
     <t>b-222-5</t>
   </si>
   <si>
-    <t>Blood Bank Quality Assurance (bbqa Ii) Testing Reagents</t>
-  </si>
-  <si>
-    <t>Baxter Diagnostics, Inc</t>
-  </si>
-  <si>
-    <t>December 15, 1994</t>
-  </si>
-  <si>
-    <t>Blood Bank Assurance Ii Testing Regents Which Were Found To  Be Hemolyzed Were Distributed</t>
-  </si>
-  <si>
-    <t>385 kits were distributed; firm estimates none remains on
- market</t>
+    <t>Blood Bank Quality Assurance Bbqa Ii Testing Reagents</t>
+  </si>
+  <si>
+    <t>Baxter Diagnostics Inc</t>
+  </si>
+  <si>
+    <t>December 15 1994</t>
+  </si>
+  <si>
+    <t>Blood Bank Assurance Ii Testing Regents Which Were Found To Be Hemolyzed Were Distributed</t>
+  </si>
+  <si>
+    <t>385 Kits Were Distributed Firm Estimates None Remains On Market</t>
   </si>
   <si>
     <t>Nationwide And International</t>
@@ -310,13 +307,13 @@
     <t>Recovered Plasma</t>
   </si>
   <si>
-    <t>Hoxworth Blood Center, University Of Cincinnati Medical  Center, Cincinnati, Ohio</t>
-  </si>
-  <si>
-    <t>March 7, 1994</t>
-  </si>
-  <si>
-    <t>Blood Product, Collected From A Donor With A Reported  History Of Cancer, Was Distributed</t>
+    <t>Hoxworth Blood Center University Of Cincinnati Medical Center Cincinnati Ohio</t>
+  </si>
+  <si>
+    <t>March 7 1994</t>
+  </si>
+  <si>
+    <t>Blood Product Collected From A Donor With A Reported History Of Cancer Was Distributed</t>
   </si>
   <si>
     <t>Florida</t>
@@ -325,83 +322,340 @@
     <t>b-227-5</t>
   </si>
   <si>
-    <t>Platelets, Pheresis</t>
-  </si>
-  <si>
-    <t>American Red Cross Blood Services, Baltimore, Maryland</t>
-  </si>
-  <si>
-    <t>December 12, 1993</t>
+    <t>Platelets Pheresis</t>
+  </si>
+  <si>
+    <t>American Red Cross Blood Services Baltimore Maryland</t>
+  </si>
+  <si>
+    <t>December 12 1993</t>
   </si>
   <si>
     <t>Unlicensed Blood Product Was Distributed Interstate</t>
   </si>
   <si>
-    <t>Washington, D</t>
+    <t>Washington D</t>
   </si>
   <si>
     <t>b-228/229-5</t>
   </si>
   <si>
-    <t>(a) Red Blood Cells; (b) Recovered Plasma</t>
-  </si>
-  <si>
-    <t>American Red Cross Blood Services, Galesburg, Illinois</t>
-  </si>
-  <si>
-    <t>December 6, 1994</t>
-  </si>
-  <si>
-    <t>Blood Components Which Tested Initially Reactive For  Hepatitis B Surface Antigen (hbsag), And Were Not Retested  As Required, Were Distributed</t>
-  </si>
-  <si>
-    <t>(a) Iowa; (b) California</t>
+    <t>A Red Blood Cells B Recovered Plasma</t>
+  </si>
+  <si>
+    <t>American Red Cross Blood Services Galesburg Illinois</t>
+  </si>
+  <si>
+    <t>December 6 1994</t>
+  </si>
+  <si>
+    <t>Blood Components Which Tested Initially Reactive For Hepatitis B Surface Antigen Hbsag And Were Not Retested As Required Were Distributed</t>
+  </si>
+  <si>
+    <t>A Iowa B California</t>
   </si>
   <si>
     <t>Devices</t>
   </si>
   <si>
+    <t>z-557-5</t>
+  </si>
+  <si>
+    <t>Renasol Bicarbonate Concentrate Product Bc 1 R In Drums Labeled As Containing 11</t>
+  </si>
+  <si>
+    <t>Renal Systems Division Of Minntech Corporation Plymouth Minnesota</t>
+  </si>
+  <si>
+    <t>December 30 1994</t>
+  </si>
+  <si>
+    <t>A Tare Weight Was Not Used During The Filling Process Shorting The Drum By 2</t>
+  </si>
+  <si>
+    <t>90 Drums</t>
+  </si>
+  <si>
+    <t>Indiana New York Oklahoma Rhode Island</t>
+  </si>
+  <si>
+    <t>z-594/599-5</t>
+  </si>
+  <si>
+    <t>Borning And Hill Rom Stabilet Radiant Infant Warmers Used To Achieve Maintain Adequate Neonate Body Temperatures A Borning Stabilet Model 200 B Borning Stabilet Model 300 C Hill Rom Stabilet Model 2000 3000 D Hill Rom Stabilet Model 2200 3200 E Hill Rom Stabilet Model 1500 F Hill Rom Stabilet Model 1250</t>
+  </si>
+  <si>
+    <t>Hill Rom Company Inc</t>
+  </si>
+  <si>
+    <t>Baume Corporation Grasonville Maryland Heater Element</t>
+  </si>
+  <si>
+    <t>June 9 1994</t>
+  </si>
+  <si>
+    <t>Pieces Of Hot Quartz Glass Can Fall From The Device's Heater Element</t>
+  </si>
+  <si>
+    <t>341 Heater Elements Were Distributed</t>
+  </si>
+  <si>
+    <t>z-637-5</t>
+  </si>
+  <si>
+    <t>Compass Model Vm 200 Patient Gas Volume Monitor Designed For Use With The Newport Wave Mechanical Ventilator</t>
+  </si>
+  <si>
+    <t>Newport Medical Instruments Inc</t>
+  </si>
+  <si>
+    <t>June 27 1994</t>
+  </si>
+  <si>
+    <t>Product Contains Defective Software</t>
+  </si>
+  <si>
+    <t>10 Units Were Distributed No Unrepaired Units Remain In Commerce</t>
+  </si>
+  <si>
+    <t>Texas California Florida South Africa</t>
+  </si>
+  <si>
+    <t>z-643-5</t>
+  </si>
+  <si>
+    <t>Olympus Heat Probe Unit Hpu Instruction Manuals</t>
+  </si>
+  <si>
+    <t>Olympus America</t>
+  </si>
+  <si>
+    <t>Olympus America Inc</t>
+  </si>
+  <si>
+    <t>The Internal Water Lines May Be Contaminated With Microorganisms</t>
+  </si>
+  <si>
+    <t>3 160 Units Were Distributed Nationwide Total Units Distributed Internationally Is Undetermined</t>
+  </si>
+  <si>
+    <t>Nationwide Canada South America</t>
+  </si>
+  <si>
+    <t>z-644-5</t>
+  </si>
+  <si>
+    <t>Software Versions 2000 9 A 2000 10 And 2000 11 For The Model 2000 Controller Microprocessor Used With The Model 1000 Series And Model 2000 Series Reverse Osmosis Water Purification Systems For Dialysis Applications</t>
+  </si>
+  <si>
+    <t>Continental Water Systems San Antonio Texas</t>
+  </si>
+  <si>
+    <t>January 24 1995</t>
+  </si>
+  <si>
+    <t>Software Revisions Were Made But Never Validated Which Could Possibly Lead To Patient Exposure To Heavy Metals And Bacteria</t>
+  </si>
+  <si>
+    <t>133 Units</t>
+  </si>
+  <si>
+    <t>Nationwide Australia Mexico</t>
+  </si>
+  <si>
+    <t>z-645-5</t>
+  </si>
+  <si>
+    <t>Bacteria Filter With Green Tube For Expiratory Pressure Transducer A Sub Assembly Used With The Servo Ventilator 300 Device</t>
+  </si>
+  <si>
+    <t>Siemens Medical Systems Sms</t>
+  </si>
+  <si>
+    <t>Siemens Elema Ab Life Support Systems Division Solna Sweden</t>
+  </si>
+  <si>
+    <t>February 10 1994</t>
+  </si>
+  <si>
+    <t>The Tube Connector Which Allows The Green Tube To Be Placed In The Expiratory Channel Of The Servo Ventilator 300 Has Been Determined To Have Been Improperly Manufactured And Can Potentially Flex And Occlude When Subjected To Heat And Humidity Which Is Present In The Exhaled Gases Of Ventilator Patients</t>
+  </si>
+  <si>
+    <t>Undetermined</t>
+  </si>
+  <si>
+    <t>z-646-5</t>
+  </si>
+  <si>
+    <t>Components Of The Sensormedics Model 3100 A Hfo Neonatal Ventilator A Patient Circuit Body Part 766895 B Bellows Watertrap Part 766897</t>
+  </si>
+  <si>
+    <t>Sensormedics Corporation</t>
+  </si>
+  <si>
+    <t>Contech Plastics Yorba Linda California Elbow Fitting</t>
+  </si>
+  <si>
+    <t>January 13 1995</t>
+  </si>
+  <si>
+    <t>The Elbow Fitting For The Patient Circuit And Bellows Assembly Is Totally Or Partially Occluded Due To A Molding Defect Which May Cause Increased Air Volume Pressure To The Patient And Water Back Up Into The Patient Circuit</t>
+  </si>
+  <si>
+    <t>99 Boxes Of Patient Circuit Body And 84 Boxes Of The Bellows Watertrap Were Distributed Fda Estimates Little Product Remains On The Market</t>
+  </si>
+  <si>
+    <t>z-647-5</t>
+  </si>
+  <si>
+    <t>Cordis Webster Fixed Curve Electrophysiology Catheters</t>
+  </si>
+  <si>
+    <t>Cordis Webster Inc</t>
+  </si>
+  <si>
+    <t>The Sterility Of The Medical Device May Be Compromised As Evidenced By Loss Of Package Integrity</t>
+  </si>
+  <si>
+    <t>5 638 Catheters Were Distributed</t>
+  </si>
+  <si>
+    <t>z-652/662-5</t>
+  </si>
+  <si>
+    <t>Fluoroplastic Platinum Pistons Fluoroplastic Stainless Steel Pistons And Fluoroplastic Wire Pistons 1</t>
+  </si>
+  <si>
+    <t>Xomed Surgical Products Jacksonville Florida</t>
+  </si>
+  <si>
+    <t>January 10 1995</t>
+  </si>
+  <si>
+    <t>The Wire May Separate From The Piston During Surgery Manipulation Of The Wire To Custom Fit The Patient's Ear Space</t>
+  </si>
+  <si>
+    <t>Firm Estimates 600 Unimplanted Units In Commerce</t>
+  </si>
+  <si>
+    <t>z-663/664-5</t>
+  </si>
+  <si>
+    <t>Rmi Pediatric Retrograde Coronary Sinus Perfusion Cannulae</t>
+  </si>
+  <si>
+    <t>Research Medical Inc</t>
+  </si>
+  <si>
+    <t>March 8 1994</t>
+  </si>
+  <si>
+    <t>Device Has Out Of Specification Tip Hole Dimensions Which May Cause Elevated Cardioplegia Infusion Line Pressures During The Use Of The Cannula</t>
+  </si>
+  <si>
+    <t>346 Units Were Distributed</t>
+  </si>
+  <si>
+    <t>Florida Texas Virginia Michigan Minnesota Maine California Oregon Missouri Germany South Africa Canada Sweden France Israel Greece Japan</t>
+  </si>
+  <si>
+    <t>z-665-5</t>
+  </si>
+  <si>
+    <t>Nonin Model 8800 G Ecg Cables Used With Nonin Model 8800 Cardio Respiratory Oximeters</t>
+  </si>
+  <si>
+    <t>Nonin Medical Inc</t>
+  </si>
+  <si>
+    <t>February 17 1995</t>
+  </si>
+  <si>
+    <t>The Ecg Cables Are Miswired Which Results In Incorrect Electrode Placement Or Continuous Lead Alarm</t>
+  </si>
+  <si>
+    <t>63 Cables</t>
+  </si>
+  <si>
+    <t>Alabama California Georgia Illinois Kentucky Louisiana Massachusetts Minnesota Oregon Pennsylvania Tennessee International</t>
+  </si>
+  <si>
+    <t>z-666-5</t>
+  </si>
+  <si>
+    <t>Advanced Tmr Treatment System Rx Iontophoresis And Electrotherapy Device Powered By Rechargeable Batteries</t>
+  </si>
+  <si>
+    <t>Lake Medical Products Inc</t>
+  </si>
+  <si>
+    <t>January 8 1995</t>
+  </si>
+  <si>
+    <t>Product Was Distributed Without 510 K Approval</t>
+  </si>
+  <si>
+    <t>49 Units Were Distributed Firm Estimates None Remains On The Market</t>
+  </si>
+  <si>
+    <t>Missouri Kansas New York Ohio Pennsylvania South Carolina Virginia West Virginia</t>
+  </si>
+  <si>
+    <t>z-667/671-5</t>
+  </si>
+  <si>
+    <t>Turbo Membrane Oxygenators A Catalog 9444 Turbo Membrane Oxygenator For Water Delivery System Part Numbers 98 0702 0575 6 98 0702 0592 1 B Catalog 9445 Turbo Membrane Oxygenator With Integral Reservoir Part Numbers 98 0702 0591 3 C Catalog 9446 Turbo Membrane Oxygenator 11 With Integral Cardiotomy Reservoir Part Number 98 0702 577 2 D Catalog 4408 Holder With Water System For Turbos 9444 9445 9446 E Catalog 5574 Reservoir Support Bracket Requires Holder 4408</t>
+  </si>
+  <si>
+    <t>Sarns 3 M Health Care Ann Arbor Michigan</t>
+  </si>
+  <si>
+    <t>November 12 1993</t>
+  </si>
+  <si>
+    <t>Blood To Air Leaks At The Heat Exchanger Seal Area Which Have Resulted In Blood Loss And Subsequent Oxygenator Changeout</t>
+  </si>
+  <si>
+    <t>11 497 Units Were Distributed</t>
+  </si>
+  <si>
     <t>z-648/651-5</t>
   </si>
   <si>
-    <t>Evis Video Endoscopes, Used For Endoscopic Diagnosis And  Therapeutic Procedures: (a) Model Gif-130;  (b) Model Gif-1t130; (c) Model Jf-130; (d) Model Tjf-130</t>
-  </si>
-  <si>
-    <t>Olympus America Inc.</t>
+    <t>Evis Video Endoscopes Used For Endoscopic Diagnosis And Therapeutic Procedures A Model Gif 130 B Model Gif 1 T 130 C Model Jf 130 D Model Tjf 130</t>
   </si>
   <si>
     <t>Olympus Optical Co</t>
   </si>
   <si>
-    <t>February 8, 1995</t>
-  </si>
-  <si>
-    <t>The Video Endoscopes Are More Susceptible To Surges Of  Electrical Current Due To A Manufacturing Defect In The  Charged Coupled Device (ccd) Chip Which Will Cause The Video  Endoscopes To Lose Their Images</t>
-  </si>
-  <si>
-    <t>approximately 422 units are affected by this recall</t>
-  </si>
-  <si>
-    <t>Nationwide, Canada, South American, Central America</t>
+    <t>February 8 1995</t>
+  </si>
+  <si>
+    <t>The Video Endoscopes Are More Susceptible To Surges Of Electrical Current Due To A Manufacturing Defect In The Charged Coupled Device Ccd Chip Which Will Cause The Video Endoscopes To Lose Their Images</t>
+  </si>
+  <si>
+    <t>Approximately 422 Units Are Affected By This Recall</t>
+  </si>
+  <si>
+    <t>Nationwide Canada South American Central America</t>
   </si>
   <si>
     <t>z-672/679-5</t>
   </si>
   <si>
-    <t>Candela Pldl And Pltl Dermatology Laser Systems, Used To  Treat Vascular Lesions, Brown Lesions, And Tattoos</t>
-  </si>
-  <si>
-    <t>Candela Laser Corporation, Wayland, Massachusetts</t>
-  </si>
-  <si>
-    <t>May 13, 1994</t>
+    <t>Candela Pldl And Pltl Dermatology Laser Systems Used To Treat Vascular Lesions Brown Lesions And Tattoos</t>
+  </si>
+  <si>
+    <t>Candela Laser Corporation Wayland Massachusetts</t>
+  </si>
+  <si>
+    <t>May 13 1994</t>
   </si>
   <si>
     <t>The Design Allowed For Possible Internal Fires</t>
   </si>
   <si>
-    <t>all 94 products on the market have been upgraded and all 8
- products in house have also been upgraded</t>
+    <t>All 94 Products On The Market Have Been Upgraded And All 8 Products In House Have Also Been Upgraded</t>
   </si>
 </sst>
 </file>
@@ -778,7 +1032,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K31"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1125,10 +1379,10 @@
         <v>76</v>
       </c>
       <c r="J10" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="K10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1142,7 +1396,7 @@
         <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E11" t="s">
         <v>66</v>
@@ -1151,19 +1405,19 @@
         <v>25</v>
       </c>
       <c r="G11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J11" t="s">
         <v>56</v>
       </c>
       <c r="K11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1177,7 +1431,7 @@
         <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E12" t="s">
         <v>66</v>
@@ -1186,7 +1440,7 @@
         <v>25</v>
       </c>
       <c r="G12" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H12" t="s">
         <v>85</v>
@@ -1335,7 +1589,7 @@
         <v>112</v>
       </c>
       <c r="J16" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="K16" t="s">
         <v>113</v>
@@ -1349,7 +1603,7 @@
         <v>114</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
         <v>115</v>
@@ -1358,22 +1612,22 @@
         <v>116</v>
       </c>
       <c r="F17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" t="s">
         <v>117</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>118</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>119</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>120</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>121</v>
-      </c>
-      <c r="K17" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1384,16 +1638,16 @@
         <v>114</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" t="s">
         <v>123</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>124</v>
-      </c>
-      <c r="F18" t="s">
-        <v>25</v>
       </c>
       <c r="G18" t="s">
         <v>125</v>
@@ -1408,6 +1662,461 @@
         <v>128</v>
       </c>
       <c r="K18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>129</v>
+      </c>
+      <c r="E19" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" t="s">
+        <v>131</v>
+      </c>
+      <c r="H19" t="s">
+        <v>132</v>
+      </c>
+      <c r="I19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J19" t="s">
+        <v>134</v>
+      </c>
+      <c r="K19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" t="s">
+        <v>137</v>
+      </c>
+      <c r="F20" t="s">
+        <v>138</v>
+      </c>
+      <c r="G20" t="s">
+        <v>139</v>
+      </c>
+      <c r="H20" t="s">
+        <v>118</v>
+      </c>
+      <c r="I20" t="s">
+        <v>140</v>
+      </c>
+      <c r="J20" t="s">
+        <v>141</v>
+      </c>
+      <c r="K20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>143</v>
+      </c>
+      <c r="E21" t="s">
+        <v>144</v>
+      </c>
+      <c r="F21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" t="s">
+        <v>145</v>
+      </c>
+      <c r="H21" t="s">
+        <v>146</v>
+      </c>
+      <c r="I21" t="s">
+        <v>147</v>
+      </c>
+      <c r="J21" t="s">
+        <v>148</v>
+      </c>
+      <c r="K21" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>150</v>
+      </c>
+      <c r="E22" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22" t="s">
+        <v>153</v>
+      </c>
+      <c r="H22" t="s">
+        <v>154</v>
+      </c>
+      <c r="I22" t="s">
+        <v>155</v>
+      </c>
+      <c r="J22" t="s">
+        <v>156</v>
+      </c>
+      <c r="K22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>157</v>
+      </c>
+      <c r="E23" t="s">
+        <v>158</v>
+      </c>
+      <c r="F23" t="s">
+        <v>159</v>
+      </c>
+      <c r="G23" t="s">
+        <v>160</v>
+      </c>
+      <c r="H23" t="s">
+        <v>161</v>
+      </c>
+      <c r="I23" t="s">
+        <v>162</v>
+      </c>
+      <c r="J23" t="s">
+        <v>163</v>
+      </c>
+      <c r="K23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>164</v>
+      </c>
+      <c r="E24" t="s">
+        <v>165</v>
+      </c>
+      <c r="F24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" t="s">
+        <v>166</v>
+      </c>
+      <c r="H24" t="s">
+        <v>118</v>
+      </c>
+      <c r="I24" t="s">
+        <v>167</v>
+      </c>
+      <c r="J24" t="s">
+        <v>168</v>
+      </c>
+      <c r="K24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>169</v>
+      </c>
+      <c r="E25" t="s">
+        <v>170</v>
+      </c>
+      <c r="F25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" t="s">
+        <v>171</v>
+      </c>
+      <c r="H25" t="s">
+        <v>172</v>
+      </c>
+      <c r="I25" t="s">
+        <v>173</v>
+      </c>
+      <c r="J25" t="s">
+        <v>174</v>
+      </c>
+      <c r="K25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s">
+        <v>175</v>
+      </c>
+      <c r="E26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" t="s">
+        <v>177</v>
+      </c>
+      <c r="H26" t="s">
+        <v>178</v>
+      </c>
+      <c r="I26" t="s">
+        <v>179</v>
+      </c>
+      <c r="J26" t="s">
+        <v>180</v>
+      </c>
+      <c r="K26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>182</v>
+      </c>
+      <c r="E27" t="s">
+        <v>183</v>
+      </c>
+      <c r="F27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" t="s">
+        <v>184</v>
+      </c>
+      <c r="H27" t="s">
+        <v>185</v>
+      </c>
+      <c r="I27" t="s">
+        <v>186</v>
+      </c>
+      <c r="J27" t="s">
+        <v>187</v>
+      </c>
+      <c r="K27" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" t="s">
+        <v>189</v>
+      </c>
+      <c r="E28" t="s">
+        <v>190</v>
+      </c>
+      <c r="F28" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" t="s">
+        <v>191</v>
+      </c>
+      <c r="H28" t="s">
+        <v>192</v>
+      </c>
+      <c r="I28" t="s">
+        <v>193</v>
+      </c>
+      <c r="J28" t="s">
+        <v>194</v>
+      </c>
+      <c r="K28" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s">
+        <v>196</v>
+      </c>
+      <c r="E29" t="s">
+        <v>197</v>
+      </c>
+      <c r="F29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" t="s">
+        <v>198</v>
+      </c>
+      <c r="H29" t="s">
+        <v>199</v>
+      </c>
+      <c r="I29" t="s">
+        <v>200</v>
+      </c>
+      <c r="J29" t="s">
+        <v>201</v>
+      </c>
+      <c r="K29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" t="s">
+        <v>202</v>
+      </c>
+      <c r="E30" t="s">
+        <v>203</v>
+      </c>
+      <c r="F30" t="s">
+        <v>139</v>
+      </c>
+      <c r="G30" t="s">
+        <v>204</v>
+      </c>
+      <c r="H30" t="s">
+        <v>205</v>
+      </c>
+      <c r="I30" t="s">
+        <v>206</v>
+      </c>
+      <c r="J30" t="s">
+        <v>207</v>
+      </c>
+      <c r="K30" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" t="s">
+        <v>209</v>
+      </c>
+      <c r="E31" t="s">
+        <v>210</v>
+      </c>
+      <c r="F31" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" t="s">
+        <v>211</v>
+      </c>
+      <c r="H31" t="s">
+        <v>212</v>
+      </c>
+      <c r="I31" t="s">
+        <v>213</v>
+      </c>
+      <c r="J31" t="s">
+        <v>214</v>
+      </c>
+      <c r="K31" t="s">
         <v>95</v>
       </c>
     </row>
